--- a/data/trans_dic/P5_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de patio en su vivienda</t>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>33,09%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,72; 38,14</t>
+          <t>30,62; 38,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,13; 40,12</t>
+          <t>30,47; 38,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 34,61</t>
+          <t>27,93; 34,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,52; 36,04</t>
+          <t>28,85; 35,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,44; 35,59</t>
+          <t>30,41; 35,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,88; 36,57</t>
+          <t>30,32; 35,75</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,01%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>55,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>58,2%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,02; 67,23</t>
+          <t>58,25; 66,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,27; 67,05</t>
+          <t>56,16; 66,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,16; 60,57</t>
+          <t>52,42; 60,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,05; 60,59</t>
+          <t>50,6; 59,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,26; 62,61</t>
+          <t>56,57; 62,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,19; 62,26</t>
+          <t>54,6; 61,47</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>67,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72,54%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>66,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67,71%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>67,25%</t>
+          <t>67,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>69,34%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,14; 76,06</t>
+          <t>56,52; 75,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,15; 81,69</t>
+          <t>57,61; 79,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,6; 73,55</t>
+          <t>59,45; 73,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>59,73; 75,91</t>
+          <t>58,88; 74,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,06; 72,87</t>
+          <t>60,38; 72,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,11; 76,22</t>
+          <t>61,64; 75,6</t>
         </is>
       </c>
     </row>
@@ -846,17 +847,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>47,21%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,85; 52,9</t>
+          <t>47,03; 52,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,0; 54,24</t>
+          <t>46,29; 52,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,57; 47,59</t>
+          <t>42,57; 47,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,62; 48,02</t>
+          <t>42,22; 47,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,49; 49,41</t>
+          <t>45,39; 49,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,52; 49,94</t>
+          <t>44,92; 49,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>492.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>564791</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>563758</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>561851</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>581755</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1126642</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1145513</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>502252; 631890</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>503487; 644428</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>500214; 618316</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>522035; 648007</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1043229; 1210527</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1049640; 1237706</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>701.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>576.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>869888</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>843227</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>795460</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>766413</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1665349</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1609640</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>807717; 928068</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>771702; 910164</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>739068; 852978</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>704015; 831851</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1582019; 1749111</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1509910; 1699900</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>286539</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>301521</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>274698</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>277289</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>561237</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>578810</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>238954; 320912</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>243585; 337524</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>244856; 303773</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>242510; 306845</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>503979; 607717</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>514549; 631002</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>668.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>732.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>610.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1400.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1187.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1721218</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1708506</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1632009</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1625457</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3353227</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3333963</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1622224; 1822690</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1596833; 1824603</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1537969; 1720625</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1525341; 1719643</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3205834; 3489749</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3172045; 3478745</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>